--- a/spreadsheets/Syndra.xlsx
+++ b/spreadsheets/Syndra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E278F482-ABAC-432E-89A7-85E88398BE9A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FCE785-43DF-4C2A-8814-EE4D534885DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="3225" windowWidth="21600" windowHeight="11850" activeTab="1" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="2730" yWindow="990" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -76,24 +76,6 @@
     <t>Comments</t>
   </si>
   <si>
-    <t>For each champion, please enter a value for difficulty (1 - 10).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 should indicate an extremely easy matchup. </t>
-  </si>
-  <si>
-    <t>10 should indicate an unplayable counter.</t>
-  </si>
-  <si>
-    <t>Feel free to use non integers.</t>
-  </si>
-  <si>
-    <t>For each champion, if you have any comments about the matchup, enter it into the C column.</t>
-  </si>
-  <si>
-    <t>Please aim for comments to be between 1-3 sentences long.</t>
-  </si>
-  <si>
     <t>Sample of what it will look like on the website</t>
   </si>
   <si>
@@ -253,9 +235,6 @@
     <t>If you have another link, add it to the bottom (for example, Facebook)</t>
   </si>
   <si>
-    <t>Example comment: "Need to play safe until 6. Then, you can call for jungler to set up ganks with your ult."</t>
-  </si>
-  <si>
     <t>Veigar</t>
   </si>
   <si>
@@ -319,10 +298,13 @@
     <t>Ducks of Swag is the highest ranked syndra main in North America and has consistently been high challenger in S9</t>
   </si>
   <si>
-    <t>https://i.imgur.com/7C47f4J.png</t>
-  </si>
-  <si>
     <t>Follow Ducks of Swag on twitch for more informative mid lane gameplay</t>
+  </si>
+  <si>
+    <t>discord</t>
+  </si>
+  <si>
+    <t>https://i.imgur.com/YpPSrl0.png</t>
   </si>
 </sst>
 </file>
@@ -801,8 +783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1FF1A3E-B1DC-4DEF-A1FF-05C516225EE7}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,7 +800,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
@@ -829,7 +811,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -840,10 +822,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -851,10 +833,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -862,10 +844,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -873,10 +855,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -889,40 +871,45 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>96</v>
+        <v>7</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>98</v>
-      </c>
-      <c r="C10" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -930,7 +917,7 @@
     <hyperlink ref="B6" r:id="rId1" xr:uid="{F0E3D575-217C-4726-BDE6-BB0785D357DF}"/>
     <hyperlink ref="B4" r:id="rId2" xr:uid="{6AF03F50-C2CF-4651-9B45-52FB944FA5B0}"/>
     <hyperlink ref="B5" r:id="rId3" xr:uid="{6BA65FBD-F64B-4761-B831-FF90855F41D7}"/>
-    <hyperlink ref="B8" r:id="rId4" xr:uid="{1DA95556-69B8-408F-A83F-F7684F81B97C}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{489159DD-CA0D-44B3-AE90-BDC21169CCE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
@@ -942,8 +929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92A2A11A-8C34-4DB0-87EC-6C11DACD08FD}">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,76 +952,64 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>16</v>
-      </c>
+      <c r="H2" s="1"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>18</v>
-      </c>
+      <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>19</v>
-      </c>
+      <c r="H5" s="1"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B7">
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="H7" s="1"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -1042,18 +1017,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="H9" s="1" t="s">
-        <v>75</v>
-      </c>
+      <c r="H9" s="1"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -1061,7 +1034,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -1069,7 +1042,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B12">
         <v>3</v>
@@ -1077,29 +1050,29 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B13">
         <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B15">
         <v>4</v>
@@ -1107,7 +1080,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B16">
         <v>2</v>
@@ -1115,18 +1088,18 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>5</v>
       </c>
       <c r="C17" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -1134,7 +1107,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1142,29 +1115,29 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B20">
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B21">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -1172,40 +1145,40 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B23">
         <v>5</v>
       </c>
       <c r="C23" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B24">
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B25">
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1213,7 +1186,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B27">
         <v>3</v>
@@ -1221,7 +1194,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B28">
         <v>4</v>
@@ -1229,7 +1202,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1237,7 +1210,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -1245,7 +1218,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -1253,18 +1226,18 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -1272,7 +1245,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1280,7 +1253,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -1288,18 +1261,18 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B36">
         <v>4</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -1307,18 +1280,18 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1326,7 +1299,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -1334,7 +1307,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1342,40 +1315,40 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B42">
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B43">
         <v>5</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B44">
         <v>5</v>
       </c>
       <c r="C44" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B45">
         <v>4</v>
@@ -1383,7 +1356,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B46">
         <v>3</v>

--- a/spreadsheets/Syndra.xlsx
+++ b/spreadsheets/Syndra.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a\Desktop\champsgg\completed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FCE785-43DF-4C2A-8814-EE4D534885DF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06066C3B-919C-423C-97F7-F3538BC15122}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="990" windowWidth="21525" windowHeight="11835" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
+    <workbookView xWindow="7005" yWindow="3195" windowWidth="21525" windowHeight="11820" xr2:uid="{B545EDFA-6363-4C2A-9C9C-217A6E7A6E38}"/>
   </bookViews>
   <sheets>
     <sheet name="metadata" sheetId="1" r:id="rId1"/>
@@ -295,9 +295,6 @@
     <t>Ducks of Swag</t>
   </si>
   <si>
-    <t>Ducks of Swag is the highest ranked syndra main in North America and has consistently been high challenger in S9</t>
-  </si>
-  <si>
     <t>Follow Ducks of Swag on twitch for more informative mid lane gameplay</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>https://i.imgur.com/YpPSrl0.png</t>
+  </si>
+  <si>
+    <t>Ducks of Swag is the highest ranked syndra main in North America and has consistently been high challenger in S9.</t>
   </si>
 </sst>
 </file>
@@ -784,7 +784,7 @@
   <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -871,7 +871,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -879,7 +879,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>10</v>
@@ -890,7 +890,7 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -898,7 +898,7 @@
         <v>63</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
